--- a/xlsx/自行車_intext.xlsx
+++ b/xlsx/自行車_intext.xlsx
@@ -29,7 +29,7 @@
     <t>車輛</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_自行車</t>
+    <t>体育运动_体育运动_奥林匹克运动会_自行車</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA</t>
